--- a/v0.7/StructureDefinition-CommunicationRequest.xlsx
+++ b/v0.7/StructureDefinition-CommunicationRequest.xlsx
@@ -1254,7 +1254,7 @@
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="68.375" customWidth="true" bestFit="true"/>
@@ -1282,7 +1282,7 @@
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.57421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="93.453125" customWidth="true" bestFit="true"/>
   </cols>

--- a/v0.7/StructureDefinition-CommunicationRequest.xlsx
+++ b/v0.7/StructureDefinition-CommunicationRequest.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/HCXCommunicationRequest</t>
+    <t>https://swasth-digital-health-foundation.github.io/standards/v0.7/StructureDefinition-CommunicationRequest.html</t>
   </si>
   <si>
     <t>Version</t>

--- a/v0.7/StructureDefinition-CommunicationRequest.xlsx
+++ b/v0.7/StructureDefinition-CommunicationRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="306">
   <si>
     <t>Property</t>
   </si>
@@ -99,7 +99,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DomainResource</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CommunicationRequest</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>A request for information to be sent to a receiver</t>
-  </si>
-  <si>
-    <t>DomainResource</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -417,16 +414,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -450,13 +437,276 @@
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
-    <t>CommunicationRequest.about</t>
+    <t>CommunicationRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Unique identifier</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this communication request by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Allows identification of the communication request as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
+    <t>Fulfills plan or proposal</t>
+  </si>
+  <si>
+    <t>A plan or proposal that is fulfilled in whole or in part by this request.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the request and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+prior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CommunicationRequest)
+</t>
+  </si>
+  <si>
+    <t>Request(s) replaced by this request</t>
+  </si>
+  <si>
+    <t>Completed or terminated request(s) whose function is taken by this new request.</t>
+  </si>
+  <si>
+    <t>The replacement could be because the initial request was immediately rejected (due to an issue) or because the previous request was completed, but the need for the action described by the request remains ongoing.</t>
+  </si>
+  <si>
+    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple requests.</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RPLC].target</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.groupIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grouperId
+</t>
+  </si>
+  <si>
+    <t>Composite request this is part of</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all requests that were authorized more or less simultaneously by a single author, representing the identifier of the requisition, prescription or similar form.</t>
+  </si>
+  <si>
+    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition.  Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The status of the proposal or order.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the communication request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.statusReason</t>
+  </si>
+  <si>
+    <t>Suspended Reason
+Cancelled Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason for current status</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the CommunicationRequest.</t>
+  </si>
+  <si>
+    <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason why the CommunicationRequest was created at all is captured in reasonCode, not here.  [distinct reason codes for different statuses can be enforced using invariants if they are universal bindings].</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying the reason for the current state of a request.</t>
+  </si>
+  <si>
+    <t>Request.statusReason</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.category</t>
+  </si>
+  <si>
+    <t>Message category</t>
+  </si>
+  <si>
+    <t>The type of message to be sent such as alert, notification, reminder, instruction, etc.</t>
+  </si>
+  <si>
+    <t>There may be multiple axes of categorization and one communication request may serve multiple purposes.</t>
+  </si>
+  <si>
+    <t>Codes for general categories of communications such as alerts, instruction, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/communication-category</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Characterizes how quickly the proposed act must be initiated. Includes concepts such as stat, urgent, routine.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>Codes indicating the relative importance of a communication request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.doNotPerform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prohibited
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if request is prohibiting action</t>
+  </si>
+  <si>
+    <t>If true indicates that the CommunicationRequest is asking for the specified action to *not* occur.</t>
+  </si>
+  <si>
+    <t>The attributes provided with the request qualify what is not to be done.</t>
+  </si>
+  <si>
+    <t>If do not perform is not specified, the request is a positive request e.g. "do perform"</t>
+  </si>
+  <si>
+    <t>Request.doNotPerform</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.medium</t>
+  </si>
+  <si>
+    <t>A channel of communication</t>
+  </si>
+  <si>
+    <t>A channel that was used for this communication (e.g. email, fax).</t>
+  </si>
+  <si>
+    <t>Codes for communication mediums such as phone, fax, email, in person, etc.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ParticipationMode</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group)
+</t>
+  </si>
+  <si>
+    <t>Focus of message</t>
+  </si>
+  <si>
+    <t>The patient or group that is the focus of this communication request.</t>
+  </si>
+  <si>
+    <t>Request.subject</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.about</t>
+  </si>
+  <si>
     <t>Resources that pertain to this communication request</t>
   </si>
   <si>
@@ -470,6 +720,118 @@
   </si>
   <si>
     <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter created as part of</t>
+  </si>
+  <si>
+    <t>The Encounter during which this CommunicationRequest was created or to which the creation of this record is tightly associated.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.</t>
+  </si>
+  <si>
+    <t>Request.context</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Message payload</t>
+  </si>
+  <si>
+    <t>Text, attachment(s), or resource(s) to be communicated to the recipient.</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.payload.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.payload.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.payload.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.payload.content[x]</t>
+  </si>
+  <si>
+    <t>string
+AttachmentReference(Resource)</t>
+  </si>
+  <si>
+    <t>Message part content</t>
+  </si>
+  <si>
+    <t>The communicated content (or for multi-part communications, one portion of the communication).</t>
+  </si>
+  <si>
+    <t>Request.note</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.occurrence[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timing
+</t>
+  </si>
+  <si>
+    <t>dateTime
+Period</t>
+  </si>
+  <si>
+    <t>When scheduled</t>
+  </si>
+  <si>
+    <t>The time when this communication is to occur.</t>
+  </si>
+  <si>
+    <t>Request.occurrence[x]</t>
+  </si>
+  <si>
+    <t>FiveWs.planned</t>
   </si>
   <si>
     <t>CommunicationRequest.authoredOn</t>
@@ -495,161 +857,105 @@
     <t>FiveWs.recorded</t>
   </si>
   <si>
-    <t>CommunicationRequest.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
+    <t>CommunicationRequest.requester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author
 </t>
   </si>
   <si>
-    <t>Fulfills plan or proposal</t>
-  </si>
-  <si>
-    <t>A plan or proposal that is fulfilled in whole or in part by this request.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the request and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
 </t>
   </si>
   <si>
-    <t>Message category</t>
-  </si>
-  <si>
-    <t>The type of message to be sent such as alert, notification, reminder, instruction, etc.</t>
-  </si>
-  <si>
-    <t>There may be multiple axes of categorization and one communication request may serve multiple purposes.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for general categories of communications such as alerts, instruction, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/communication-category</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.doNotPerform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prohibited
+    <t>Who/what is requesting service</t>
+  </si>
+  <si>
+    <t>The device, individual, or organization who initiated the request and has responsibility for its activation.</t>
+  </si>
+  <si>
+    <t>Request.requester</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.recipient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson|Group|CareTeam|HealthcareService)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t>Message recipient</t>
+  </si>
+  <si>
+    <t>The entity (e.g. person, organization, clinical information system, device, group, or care team) which is the intended target of the communication.</t>
+  </si>
+  <si>
+    <t>Request.performer</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.sender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson|HealthcareService)
 </t>
   </si>
   <si>
-    <t>True if request is prohibiting action</t>
-  </si>
-  <si>
-    <t>If true indicates that the CommunicationRequest is asking for the specified action to *not* occur.</t>
-  </si>
-  <si>
-    <t>The attributes provided with the request qualify what is not to be done.</t>
-  </si>
-  <si>
-    <t>If do not perform is not specified, the request is a positive request e.g. "do perform"</t>
-  </si>
-  <si>
-    <t>Request.doNotPerform</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t>Message sender</t>
+  </si>
+  <si>
+    <t>The entity (e.g. person, organization, clinical information system, or device) which is to be the source of the communication.</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.reasonCode</t>
+  </si>
+  <si>
+    <t>Why is communication needed?</t>
+  </si>
+  <si>
+    <t>Describes why the request is being made in coded or textual form.</t>
+  </si>
+  <si>
+    <t>Textual reasons can be captured using reasonCode.text.</t>
+  </si>
+  <si>
+    <t>Codes for describing reasons for the occurrence of a communication.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActReason</t>
+  </si>
+  <si>
+    <t>Request.reasonCode</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
 </t>
   </si>
   <si>
-    <t>Encounter created as part of</t>
-  </si>
-  <si>
-    <t>The Encounter during which this CommunicationRequest was created or to which the creation of this record is tightly associated.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.</t>
-  </si>
-  <si>
-    <t>Request.context</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.groupIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grouperId
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Composite request this is part of</t>
-  </si>
-  <si>
-    <t>A shared identifier common to all requests that were authorized more or less simultaneously by a single author, representing the identifier of the requisition, prescription or similar form.</t>
-  </si>
-  <si>
-    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition.  Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier</t>
-  </si>
-  <si>
-    <t>Unique identifier</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this communication request by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the communication request as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.medium</t>
-  </si>
-  <si>
-    <t>A channel of communication</t>
-  </si>
-  <si>
-    <t>A channel that was used for this communication (e.g. email, fax).</t>
-  </si>
-  <si>
-    <t>Codes for communication mediums such as phone, fax, email, in person, etc.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ParticipationMode</t>
+    <t>Indicates another resource whose existence justifies this request.</t>
+  </si>
+  <si>
+    <t>Request.reasonReference</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON].target</t>
   </si>
   <si>
     <t>CommunicationRequest.note</t>
@@ -665,285 +971,7 @@
     <t>Comments made about the request by the requester, sender, recipient, subject or other participants.</t>
   </si>
   <si>
-    <t>Request.note</t>
-  </si>
-  <si>
     <t>.inboundRelationship(typeCode=SUBJ].source[classCode=ANNGEN, moodCode=EVN].value[xsi:type=ST]</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.occurrence[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timing
-</t>
-  </si>
-  <si>
-    <t>dateTime
-Period</t>
-  </si>
-  <si>
-    <t>When scheduled</t>
-  </si>
-  <si>
-    <t>The time when this communication is to occur.</t>
-  </si>
-  <si>
-    <t>Request.occurrence[x]</t>
-  </si>
-  <si>
-    <t>FiveWs.planned</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.payload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Message payload</t>
-  </si>
-  <si>
-    <t>Text, attachment(s), or resource(s) to be communicated to the recipient.</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.payload.content[x]</t>
-  </si>
-  <si>
-    <t>string
-AttachmentReference(Resource)</t>
-  </si>
-  <si>
-    <t>Message part content</t>
-  </si>
-  <si>
-    <t>The communicated content (or for multi-part communications, one portion of the communication).</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Characterizes how quickly the proposed act must be initiated. Includes concepts such as stat, urgent, routine.</t>
-  </si>
-  <si>
-    <t>If missing, this task should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes indicating the relative importance of a communication request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.reasonCode</t>
-  </si>
-  <si>
-    <t>Why is communication needed?</t>
-  </si>
-  <si>
-    <t>Describes why the request is being made in coded or textual form.</t>
-  </si>
-  <si>
-    <t>Textual reasons can be captured using reasonCode.text.</t>
-  </si>
-  <si>
-    <t>Codes for describing reasons for the occurrence of a communication.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActReason</t>
-  </si>
-  <si>
-    <t>Request.reasonCode</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
-</t>
-  </si>
-  <si>
-    <t>Indicates another resource whose existence justifies this request.</t>
-  </si>
-  <si>
-    <t>Request.reasonReference</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON].target</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.recipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson|Group|CareTeam|HealthcareService)
-</t>
-  </si>
-  <si>
-    <t>Message recipient</t>
-  </si>
-  <si>
-    <t>The entity (e.g. person, organization, clinical information system, device, group, or care team) which is the intended target of the communication.</t>
-  </si>
-  <si>
-    <t>Request.performer</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.replaces</t>
-  </si>
-  <si>
-    <t>supersedes
-prior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CommunicationRequest)
-</t>
-  </si>
-  <si>
-    <t>Request(s) replaced by this request</t>
-  </si>
-  <si>
-    <t>Completed or terminated request(s) whose function is taken by this new request.</t>
-  </si>
-  <si>
-    <t>The replacement could be because the initial request was immediately rejected (due to an issue) or because the previous request was completed, but the need for the action described by the request remains ongoing.</t>
-  </si>
-  <si>
-    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple requests.</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RPLC].target</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.requester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">author
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
-</t>
-  </si>
-  <si>
-    <t>Who/what is requesting service</t>
-  </si>
-  <si>
-    <t>The device, individual, or organization who initiated the request and has responsibility for its activation.</t>
-  </si>
-  <si>
-    <t>Request.requester</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.sender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson|HealthcareService)
-</t>
-  </si>
-  <si>
-    <t>Message sender</t>
-  </si>
-  <si>
-    <t>The entity (e.g. person, organization, clinical information system, or device) which is to be the source of the communication.</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.status</t>
-  </si>
-  <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The status of the proposal or order.</t>
-  </si>
-  <si>
-    <t>The status of the communication request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.statusReason</t>
-  </si>
-  <si>
-    <t>Suspended Reason
-Cancelled Reason</t>
-  </si>
-  <si>
-    <t>Reason for current status</t>
-  </si>
-  <si>
-    <t>Captures the reason for the current state of the CommunicationRequest.</t>
-  </si>
-  <si>
-    <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason why the CommunicationRequest was created at all is captured in reasonCode, not here.  [distinct reason codes for different statuses can be enforced using invariants if they are universal bindings].</t>
-  </si>
-  <si>
-    <t>Codes identifying the reason for the current state of a request.</t>
-  </si>
-  <si>
-    <t>Request.statusReason</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group)
-</t>
-  </si>
-  <si>
-    <t>Focus of message</t>
-  </si>
-  <si>
-    <t>The patient or group that is the focus of this communication request.</t>
-  </si>
-  <si>
-    <t>Request.subject</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL33"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1247,7 +1275,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.50390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1274,7 +1302,7 @@
     <col min="25" max="25" width="53.609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="39.3671875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1485,7 +1513,7 @@
         <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>72</v>
@@ -1497,21 +1525,21 @@
         <v>71</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1522,28 +1550,28 @@
         <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1593,13 +1621,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1619,7 +1647,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1630,25 +1658,25 @@
         <v>72</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1699,19 +1727,19 @@
         <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>71</v>
@@ -1725,7 +1753,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1736,28 +1764,28 @@
         <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1807,19 +1835,19 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>71</v>
@@ -1833,7 +1861,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1844,7 +1872,7 @@
         <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1856,16 +1884,16 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1891,43 +1919,43 @@
         <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>71</v>
@@ -1941,18 +1969,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>71</v>
@@ -1964,16 +1992,16 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2023,37 +2051,37 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2072,16 +2100,16 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2131,7 +2159,7 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>72</v>
@@ -2152,16 +2180,16 @@
         <v>71</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2180,16 +2208,16 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2227,19 +2255,19 @@
         <v>71</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>72</v>
@@ -2251,7 +2279,7 @@
         <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>71</v>
@@ -2260,16 +2288,16 @@
         <v>71</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2282,25 +2310,25 @@
         <v>71</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>71</v>
@@ -2337,19 +2365,19 @@
         <v>71</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="AC10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
@@ -2361,7 +2389,7 @@
         <v>71</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>71</v>
@@ -2370,12 +2398,12 @@
         <v>71</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2395,21 +2423,23 @@
         <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>71</v>
       </c>
@@ -2457,7 +2487,7 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>72</v>
@@ -2469,13 +2499,13 @@
         <v>71</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>71</v>
@@ -2483,39 +2513,41 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>71</v>
       </c>
@@ -2563,37 +2595,37 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>71</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2609,18 +2641,20 @@
         <v>71</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
         <v>158</v>
       </c>
@@ -2671,7 +2705,7 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
@@ -2683,7 +2717,7 @@
         <v>71</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>159</v>
@@ -2701,14 +2735,14 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2717,10 +2751,10 @@
         <v>71</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>163</v>
@@ -2755,13 +2789,13 @@
         <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>71</v>
@@ -2785,67 +2819,63 @@
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>71</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="P15" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>71</v>
       </c>
@@ -2865,13 +2895,13 @@
         <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>71</v>
@@ -2889,25 +2919,25 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>71</v>
@@ -2915,18 +2945,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -2935,19 +2965,19 @@
         <v>71</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2973,10 +3003,10 @@
         <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s" s="2">
         <v>71</v>
@@ -2997,44 +3027,44 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>71</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -3043,10 +3073,10 @@
         <v>71</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>187</v>
@@ -3081,13 +3111,13 @@
         <v>71</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>71</v>
@@ -3105,33 +3135,33 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3142,7 +3172,7 @@
         <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -3151,89 +3181,87 @@
         <v>71</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Q18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>71</v>
@@ -3241,43 +3269,47 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="P19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="Q19" t="s" s="2">
         <v>71</v>
       </c>
@@ -3297,13 +3329,13 @@
         <v>71</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>71</v>
@@ -3321,22 +3353,22 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>71</v>
@@ -3347,7 +3379,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3370,13 +3402,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3403,13 +3435,13 @@
         <v>71</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>71</v>
@@ -3427,7 +3459,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -3439,32 +3471,32 @@
         <v>71</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>209</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -3473,16 +3505,16 @@
         <v>71</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3533,25 +3565,25 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>71</v>
@@ -3559,7 +3591,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3582,15 +3614,17 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>71</v>
@@ -3639,7 +3673,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3651,13 +3685,13 @@
         <v>71</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>71</v>
@@ -3665,7 +3699,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3673,30 +3707,32 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>71</v>
@@ -3745,25 +3781,25 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>71</v>
@@ -3771,7 +3807,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3782,7 +3818,7 @@
         <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -3791,25 +3827,23 @@
         <v>71</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="P24" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
         <v>71</v>
       </c>
@@ -3829,13 +3863,13 @@
         <v>71</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>231</v>
+        <v>71</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>71</v>
@@ -3853,25 +3887,25 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>233</v>
+        <v>71</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>71</v>
@@ -3879,7 +3913,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3890,7 +3924,7 @@
         <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>71</v>
@@ -3899,20 +3933,18 @@
         <v>71</v>
       </c>
       <c r="I25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J25" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>71</v>
@@ -3937,13 +3969,13 @@
         <v>71</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>239</v>
+        <v>71</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>71</v>
@@ -3961,13 +3993,13 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>71</v>
@@ -3976,22 +4008,22 @@
         <v>71</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>240</v>
+        <v>71</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4007,18 +4039,20 @@
         <v>71</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>126</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>71</v>
@@ -4067,7 +4101,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
@@ -4079,25 +4113,25 @@
         <v>71</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>247</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4110,22 +4144,26 @@
         <v>71</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>71</v>
       </c>
@@ -4173,7 +4211,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -4185,32 +4223,32 @@
         <v>71</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>71</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>71</v>
@@ -4219,23 +4257,19 @@
         <v>71</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>71</v>
       </c>
@@ -4283,62 +4317,62 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="AK28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>262</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4389,62 +4423,62 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>270</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4495,25 +4529,25 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>71</v>
@@ -4521,36 +4555,36 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>71</v>
+        <v>270</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4577,13 +4611,13 @@
         <v>71</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>278</v>
+        <v>71</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>279</v>
+        <v>71</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>71</v>
@@ -4601,44 +4635,44 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="AL31" t="s" s="2">
-        <v>71</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>283</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>71</v>
@@ -4650,17 +4684,15 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>162</v>
+        <v>278</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>71</v>
@@ -4685,10 +4717,10 @@
         <v>71</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>287</v>
+        <v>71</v>
       </c>
       <c r="Y32" t="s" s="2">
         <v>71</v>
@@ -4709,62 +4741,62 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="AL32" t="s" s="2">
-        <v>289</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>291</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4815,28 +4847,348 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG33" t="s" s="2">
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="J35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>71</v>
+      <c r="AF35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/v0.7/StructureDefinition-CommunicationRequest.xlsx
+++ b/v0.7/StructureDefinition-CommunicationRequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - HCX</t>
+    <t>HCX Open Community</t>
   </si>
   <si>
     <t>Contact</t>
